--- a/output/IBIUNA_28647981000182.xlsx
+++ b/output/IBIUNA_28647981000182.xlsx
@@ -812,10 +812,10 @@
         <v>44165</v>
       </c>
       <c r="B39">
-        <v>0.4006494609999998</v>
+        <v>0.400980586</v>
       </c>
       <c r="C39">
-        <v>-0.004204539905802496</v>
+        <v>-0.003969125706243637</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_28647981000182.xlsx
+++ b/output/IBIUNA_28647981000182.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA HEDGE STS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,436 +383,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43039</v>
       </c>
       <c r="B2">
-        <v>-0.01895998099999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43069</v>
       </c>
       <c r="B3">
-        <v>-0.01814957699999997</v>
-      </c>
-      <c r="C3">
         <v>0.0008260661994461405</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43100</v>
       </c>
       <c r="B4">
-        <v>0.008230087999999913</v>
-      </c>
-      <c r="C4">
         <v>0.02686729504011209</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43131</v>
       </c>
       <c r="B5">
-        <v>0.06176179300000006</v>
-      </c>
-      <c r="C5">
         <v>0.05309473069405191</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43159</v>
       </c>
       <c r="B6">
-        <v>0.08040170799999991</v>
-      </c>
-      <c r="C6">
         <v>0.01755564677773247</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43190</v>
       </c>
       <c r="B7">
-        <v>0.09805907000000014</v>
-      </c>
-      <c r="C7">
         <v>0.01634333032727886</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43220</v>
       </c>
       <c r="B8">
-        <v>0.09078720000000007</v>
-      </c>
-      <c r="C8">
         <v>-0.006622476147845169</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43251</v>
       </c>
       <c r="B9">
-        <v>0.0474901459999999</v>
-      </c>
-      <c r="C9">
         <v>-0.03969340124269904</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43281</v>
       </c>
       <c r="B10">
-        <v>0.06695090599999998</v>
-      </c>
-      <c r="C10">
         <v>0.01857846594005097</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43312</v>
       </c>
       <c r="B11">
-        <v>0.06644190500000002</v>
-      </c>
-      <c r="C11">
         <v>-0.000477061312884719</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43343</v>
       </c>
       <c r="B12">
-        <v>0.05197705299999988</v>
-      </c>
-      <c r="C12">
         <v>-0.01356365680322746</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43373</v>
       </c>
       <c r="B13">
-        <v>0.05682301499999998</v>
-      </c>
-      <c r="C13">
         <v>0.004606528237645957</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43404</v>
       </c>
       <c r="B14">
-        <v>0.06828742300000012</v>
-      </c>
-      <c r="C14">
         <v>0.01084799236700973</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43434</v>
       </c>
       <c r="B15">
-        <v>0.05562335500000004</v>
-      </c>
-      <c r="C15">
         <v>-0.01185455124467949</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43465</v>
       </c>
       <c r="B16">
-        <v>0.06900383700000012</v>
-      </c>
-      <c r="C16">
         <v>0.01267543194892662</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43496</v>
       </c>
       <c r="B17">
-        <v>0.10997496</v>
-      </c>
-      <c r="C17">
         <v>0.03832645083387098</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43524</v>
       </c>
       <c r="B18">
-        <v>0.09914506299999992</v>
-      </c>
-      <c r="C18">
         <v>-0.009756884065204474</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43555</v>
       </c>
       <c r="B19">
-        <v>0.09214373499999984</v>
-      </c>
-      <c r="C19">
         <v>-0.006369794338966228</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43585</v>
       </c>
       <c r="B20">
-        <v>0.09471888800000006</v>
-      </c>
-      <c r="C20">
         <v>0.002357888359813876</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43616</v>
       </c>
       <c r="B21">
-        <v>0.1032711319999999</v>
-      </c>
-      <c r="C21">
         <v>0.007812274085838178</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43646</v>
       </c>
       <c r="B22">
-        <v>0.15623203</v>
-      </c>
-      <c r="C22">
         <v>0.04800352013561082</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43677</v>
       </c>
       <c r="B23">
-        <v>0.178931647</v>
-      </c>
-      <c r="C23">
         <v>0.01963240630861951</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43708</v>
       </c>
       <c r="B24">
-        <v>0.1912365649999999</v>
-      </c>
-      <c r="C24">
         <v>0.01043734641555516</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43738</v>
       </c>
       <c r="B25">
-        <v>0.2020867449999999</v>
-      </c>
-      <c r="C25">
         <v>0.009108333574364469</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43769</v>
       </c>
       <c r="B26">
-        <v>0.225557571</v>
-      </c>
-      <c r="C26">
         <v>0.01952506846750079</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43799</v>
       </c>
       <c r="B27">
-        <v>0.2061648730000001</v>
-      </c>
-      <c r="C27">
         <v>-0.01582357162069203</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43830</v>
       </c>
       <c r="B28">
-        <v>0.244403492</v>
-      </c>
-      <c r="C28">
         <v>0.03170264684038759</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43861</v>
       </c>
       <c r="B29">
-        <v>0.2466506879999999</v>
-      </c>
-      <c r="C29">
         <v>0.001805841927033036</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>0.2731953520000001</v>
-      </c>
-      <c r="C30">
         <v>0.02129278414195213</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>0.3146241009999999</v>
-      </c>
-      <c r="C31">
         <v>0.03253919277581518</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43951</v>
       </c>
       <c r="B32">
-        <v>0.351663321</v>
-      </c>
-      <c r="C32">
         <v>0.02817476111370953</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43982</v>
       </c>
       <c r="B33">
-        <v>0.3601919710000001</v>
-      </c>
-      <c r="C33">
         <v>0.006309744347941848</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44012</v>
       </c>
       <c r="B34">
-        <v>0.3729685490000001</v>
-      </c>
-      <c r="C34">
         <v>0.009393216746167665</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44043</v>
       </c>
       <c r="B35">
-        <v>0.411348295</v>
-      </c>
-      <c r="C35">
         <v>0.02795384208032581</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44074</v>
       </c>
       <c r="B36">
-        <v>0.4214324030000001</v>
-      </c>
-      <c r="C36">
         <v>0.007145017311265489</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44104</v>
       </c>
       <c r="B37">
-        <v>0.4045475250000001</v>
-      </c>
-      <c r="C37">
         <v>-0.01187877662304837</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44135</v>
       </c>
       <c r="B38">
-        <v>0.406563413</v>
-      </c>
-      <c r="C38">
         <v>0.001435257948996682</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44165</v>
       </c>
       <c r="B39">
-        <v>0.400980586</v>
-      </c>
-      <c r="C39">
-        <v>-0.003969125706243637</v>
+        <v>-0.006762651375747164</v>
       </c>
     </row>
   </sheetData>
